--- a/PANAMÁ/Género/Mujeres alcaldesas electas.xls.xlsx
+++ b/PANAMÁ/Género/Mujeres alcaldesas electas.xls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Género\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82746B17-AA5A-46A0-A0D5-B97891B43DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2F8706-68EF-4F63-865F-8D0450AF67FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -257,6 +257,12 @@
     <font>
       <sz val="10"/>
       <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -619,15 +625,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1176,13 +1182,13 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="2.85546875" customWidth="1"/>
     <col min="6" max="6" width="2.85546875" customWidth="1"/>
     <col min="8" max="8" width="2.85546875" customWidth="1"/>
@@ -1312,180 +1318,180 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>13.4</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>13.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>13.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>13.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>13.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>13.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>14.28571429</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>14.28571429</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>14.28571429</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>14.28571429</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>14.28571429</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
